--- a/data/trans_dic/P32A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P32A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5,24%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,2%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>1,31; 7,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,12 +734,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>2,38; 10,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,04</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,83</t>
+          <t>0,88; 10,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>0,87; 4,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>2,41; 7,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,0; 2,65</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
     </row>
@@ -864,22 +864,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>0,9; 5,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,31; 4,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>0,83; 5,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>0,0; 3,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,37</t>
+          <t>0,0; 3,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>0,0; 4,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,68; 3,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,41; 3,15</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0,89; 4,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>0,0; 2,13</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1004,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0,0; 3,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>0,0; 2,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>2,07; 7,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,27 +1039,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>0,0; 3,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,0; 1,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>1,7; 5,3</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6,72%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -1144,32 +1144,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>4,43; 9,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>0,43; 4,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>0,0; 3,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>0,54; 6,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,06</t>
+          <t>0,34; 3,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>0,25; 2,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>3,48; 7,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,0; 2,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>0,58; 3,02</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,01%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,13%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,65%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,09%</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>0,0; 4,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>1,51; 10,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>1,02; 8,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>0,0; 8,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,27 +1319,27 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0,0; 23,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,34</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,13</t>
+          <t>1,09; 6,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>0,73; 6,71</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>0,0; 5,62</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,79%</t>
         </is>
       </c>
     </row>
@@ -1424,22 +1424,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>0,0; 4,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>0,47; 3,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>1,24; 6,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,37 +1449,37 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>0,0; 5,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0,0; 7,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>0,56; 6,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,0; 2,62</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,0; 2,6</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,62; 3,59</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,39; 4,91</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3,81%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,53%</t>
         </is>
       </c>
     </row>
@@ -1564,22 +1564,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0,0; 2,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,98; 4,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>2,12; 6,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,99; 4,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,37 +1589,37 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>0,0; 2,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0,44; 4,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>0,47; 6,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,0; 1,35</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,85; 3,3</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>1,7; 4,61</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,14; 4,44</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,88%</t>
         </is>
       </c>
     </row>
@@ -1704,27 +1704,27 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,16; 1,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,45; 3,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,0; 1,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,23; 2,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,0; 2,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1734,32 +1734,32 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>0,37; 3,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>0,0; 3,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,24; 1,31</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,31; 2,34</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,29; 1,78</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,18; 2,13</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,66; 1,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,92; 3,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,39; 2,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,23; 2,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,1; 0,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,37; 1,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,73; 2,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,89; 2,79</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,55; 1,28</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,5; 2,61</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,29; 2,28</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,28; 2,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,86%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,82; 19,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,65</t>
+          <t>0,0; 5,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,11; 10,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,64; 13,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,65</t>
+          <t>0,0; 2,9</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,37%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,11</t>
+          <t>0,0; 2,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,13</t>
+          <t>0,0; 2,1</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,07%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 7,33</t>
+          <t>2,02; 7,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,3</t>
+          <t>1,66; 5,24</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,4%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,43; 9,43</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,27</t>
+          <t>0,42; 4,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 6,6</t>
+          <t>0; 2,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,43</t>
+          <t>0,34; 3,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,4</t>
+          <t>0,0; 2,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,02</t>
+          <t>0,57; 2,99</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,11%</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,99</t>
+          <t>0,0; 24,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,62</t>
+          <t>0,0; 5,7</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,75%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 6,27</t>
+          <t>1,2; 6,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,56</t>
+          <t>0,55; 6,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,91</t>
+          <t>1,37; 4,79</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,53</t>
+          <t>0,93; 4,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 6,3</t>
+          <t>0,23; 5,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,44</t>
+          <t>0,68; 3,82</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,67</t>
+          <t>0,24; 2,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,17</t>
+          <t>0,0; 3,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,13</t>
+          <t>0,19; 2,17</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,52</t>
+          <t>1,22; 2,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,79</t>
+          <t>0,61; 2,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,37</t>
+          <t>1,15; 2,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,22 +725,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 7,4</t>
+          <t>0,69; 7,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,82; 19,51</t>
+          <t>8,3; 18,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 10,21</t>
+          <t>2,34; 9,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,03</t>
+          <t>0,0; 5,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,12 +750,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 10,84</t>
+          <t>1,09; 10,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 10,12</t>
+          <t>0,88; 11,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,29 +765,29 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,88</t>
+          <t>0,86; 4,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,64; 13,59</t>
+          <t>6,56; 13,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 7,96</t>
+          <t>2,56; 8,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,9</t>
+          <t>0,0; 4,04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,22 +865,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,54</t>
+          <t>0,89; 4,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 4,24</t>
+          <t>0,31; 4,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,16</t>
+          <t>0,83; 4,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,96</t>
+          <t>0,0; 2,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,12 +890,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,53</t>
+          <t>0,0; 3,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,41</t>
+          <t>0,0; 6,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,29 +905,29 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,83</t>
+          <t>0,68; 3,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,15</t>
+          <t>0,41; 3,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,04</t>
+          <t>0,89; 4,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,1</t>
+          <t>0,0; 1,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,01</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,27</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,32</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 7,17</t>
+          <t>1,92; 6,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,27 +1040,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,79</t>
+          <t>0,0; 3,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,89</t>
+          <t>0,0; 2,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,79</t>
+          <t>0,0; 1,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,0; 1,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,24</t>
+          <t>1,65; 5,37</t>
         </is>
       </c>
     </row>
@@ -1144,27 +1145,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,56</t>
+          <t>0,0; 2,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,09</t>
+          <t>0,0; 3,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,73</t>
+          <t>0,0; 2,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,24</t>
+          <t>0,0; 3,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,57</t>
+          <t>0,0; 3,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1179,27 +1180,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,51</t>
+          <t>0,34; 3,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,0</t>
+          <t>0,25; 2,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,22</t>
+          <t>0,0; 2,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,13</t>
+          <t>0,0; 1,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,99</t>
+          <t>0,6; 2,89</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1285,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,24</t>
+          <t>0,0; 4,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,51; 10,15</t>
+          <t>1,48; 8,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 8,28</t>
+          <t>1,01; 8,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,7 +1310,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,37</t>
+          <t>0,0; 9,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,34 +1320,34 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,81</t>
+          <t>0,0; 27,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,09</t>
+          <t>0,0; 3,65</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,72</t>
+          <t>1,2; 6,79</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,71</t>
+          <t>0,72; 5,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,7</t>
+          <t>0,0; 6,13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,22 +1425,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,78</t>
+          <t>0,0; 5,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>0,0; 3,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,44</t>
+          <t>0,47; 4,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 6,15</t>
+          <t>1,38; 6,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,44 +1450,44 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,63</t>
+          <t>0,0; 5,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,38</t>
+          <t>0,0; 6,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 6,49</t>
+          <t>0,55; 6,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,62</t>
+          <t>0,0; 2,84</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>0,0; 2,27</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,59</t>
+          <t>0,62; 3,8</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,79</t>
+          <t>1,32; 4,91</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,22 +1565,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,22</t>
+          <t>0,0; 1,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,54</t>
+          <t>1,02; 4,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 6,67</t>
+          <t>2,09; 6,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,3</t>
+          <t>0,91; 4,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,37 +1590,37 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,72</t>
+          <t>0,0; 2,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,12</t>
+          <t>0,44; 4,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,23; 5,21</t>
+          <t>0,25; 5,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,0; 1,57</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,3</t>
+          <t>0,85; 3,22</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,61</t>
+          <t>1,77; 4,5</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,82</t>
+          <t>0,82; 3,88</t>
         </is>
       </c>
     </row>
@@ -1704,27 +1705,27 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,41</t>
+          <t>0,16; 1,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,8</t>
+          <t>0,57; 3,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,0; 1,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,72</t>
+          <t>0,23; 2,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,99</t>
+          <t>0,0; 2,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1734,32 +1735,32 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,94</t>
+          <t>0,41; 3,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,35</t>
+          <t>0,0; 4,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,31</t>
+          <t>0,24; 1,33</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,34</t>
+          <t>0,31; 2,41</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,78</t>
+          <t>0,29; 1,69</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,17</t>
+          <t>0,27; 2,37</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,58</t>
+          <t>0,69; 1,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,47</t>
+          <t>1,86; 3,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,67</t>
+          <t>1,36; 2,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,5</t>
+          <t>1,27; 2,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,9</t>
+          <t>0,1; 0,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,65</t>
+          <t>0,38; 1,68</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,16</t>
+          <t>0,75; 2,3</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,36</t>
+          <t>0,61; 2,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,28</t>
+          <t>0,55; 1,23</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,61</t>
+          <t>1,44; 2,6</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,28</t>
+          <t>1,32; 2,24</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,22</t>
+          <t>1,15; 2,18</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le ha molestado que le criticasen la forma de beber</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4826</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>22734</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9356</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2315</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5044</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3846</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4826</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>27777</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13202</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2315</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1012; 11410</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>14554; 32209</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4179; 16802</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10042</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1982</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1200; 11773</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>939; 11784</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1061</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1898; 10651</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>18688; 38877</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7285; 23022</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10938</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6584</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7693</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2045; 10742</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>952; 13179</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2226; 13283</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6857</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1909</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6021</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6309</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1509</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2044; 11462</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1878; 14457</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3311; 16501</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7076</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1054</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7397</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1054</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8448</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5230</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4784</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4988</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3549; 12280</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1872</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2078</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1850</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3492</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5782</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5373</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4352</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4534; 14781</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1891</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1267</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2498</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1725</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2883</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1891</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1267</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4223</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5956</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5786</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6340</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6850</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4940</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1992</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2064</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>422; 4790</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>915; 7795</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5791</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6955</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1814; 8730</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5138</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2857</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6031</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2857</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4511</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1893; 10768</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>924; 7835</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1267</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2009</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5065</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1746</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2375</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5266</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2183; 12384</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>924; 7675</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2437</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1733</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1054</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2737</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4976</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1027</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2216</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1733</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2081</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4872</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>7192</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10043</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6356</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>892; 8204</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2282; 10243</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1966</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5150</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6486</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>526; 5825</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8664</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6325</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1829; 11193</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3455; 12832</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>14473</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>6788</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>4258</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>7965</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>10239</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>18731</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>14753</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5726</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4032; 17666</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>7946; 24062</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2814; 13031</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4963</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1116; 10683</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>980; 21419</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6650</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>5157; 19506</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>11246; 28603</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>5776; 27453</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2541</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>6421</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1872</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2695</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>4136</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>4577</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>6421</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>3394</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>771; 7625</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2586; 15927</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6608</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>648; 7773</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6818</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2085</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1076; 10220</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>0; 4539</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1771; 9711</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>2062; 16040</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>2072; 12206</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1013; 8911</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>20089</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>51661</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>40012</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>27988</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>2959</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>8993</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>15484</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>14096</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>23048</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>60654</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>55495</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>42084</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>12904; 30978</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>37804; 69413</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>27273; 54016</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>19920; 38761</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>924; 7924</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>4015; 17596</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>8583; 26333</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>6208; 24462</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>15185; 34160</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>44321; 79962</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>41469; 70542</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>29711; 56615</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>